--- a/kritika kumari.xlsx
+++ b/kritika kumari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiteracyIndia\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E130F5C-3B1D-4240-BA56-5D28BB6D7644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230A6320-193B-49A3-9CD6-FC4D28BBB6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{1CADE136-FBC6-4668-B0F7-50D5456CDEEC}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{1CADE136-FBC6-4668-B0F7-50D5456CDEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,84 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Junary</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>kritika</t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>hitanjali</t>
+  </si>
+  <si>
+    <t>muskan</t>
+  </si>
+  <si>
+    <t>anushka</t>
+  </si>
+  <si>
+    <t>deepu</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>kajal</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +118,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,12 +163,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,16 +596,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8A5028-1526-4A39-B189-D9242D97C9EC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
+        <v>456</v>
+      </c>
+      <c r="C2" s="9">
+        <v>346</v>
+      </c>
+      <c r="D2" s="10">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>786</v>
+      </c>
+      <c r="C3" s="9">
+        <v>674</v>
+      </c>
+      <c r="D3" s="10">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>346</v>
+      </c>
+      <c r="C4" s="9">
+        <v>678</v>
+      </c>
+      <c r="D4" s="10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>568</v>
+      </c>
+      <c r="C5" s="9">
+        <v>566</v>
+      </c>
+      <c r="D5" s="10">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>678</v>
+      </c>
+      <c r="C6" s="9">
+        <v>345</v>
+      </c>
+      <c r="D6" s="10">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>347</v>
+      </c>
+      <c r="C7" s="9">
+        <v>789</v>
+      </c>
+      <c r="D7" s="10">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>756</v>
+      </c>
+      <c r="C8" s="9">
+        <v>745</v>
+      </c>
+      <c r="D8" s="10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>457</v>
+      </c>
+      <c r="C9" s="9">
+        <v>235</v>
+      </c>
+      <c r="D9" s="10">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>754</v>
+      </c>
+      <c r="C10" s="9">
+        <v>345</v>
+      </c>
+      <c r="D10" s="10">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9">
+        <v>673</v>
+      </c>
+      <c r="C11" s="9">
+        <v>775</v>
+      </c>
+      <c r="D11" s="10">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>347</v>
+      </c>
+      <c r="C12" s="9">
+        <v>867</v>
+      </c>
+      <c r="D12" s="10">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="12">
+        <v>345</v>
+      </c>
+      <c r="C13" s="12">
+        <v>567</v>
+      </c>
+      <c r="D13" s="13">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14" cm="1">
+        <f t="array" ref="C17">SUM(VLOOKUP(A17,A1:D13,{2,3,4},0))</f>
+        <v>1809</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:B18" xr:uid="{D99A62E8-76E1-422D-B428-F3C23673AEBD}">
+      <formula1>$A$2:$A$13</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>